--- a/medicine/Enfance/John_Harvey/John_Harvey.xlsx
+++ b/medicine/Enfance/John_Harvey/John_Harvey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Harvey, né le 21 décembre 1938 à Londres, est un écrivain et scénariste britannique, spécialisé dans le roman policier.
 </t>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir été enseignant de théâtre et de lettres dans un établissement du secondaire de 1963 à 1974, il démissionne et commence à écrire dès 1975. Il obtient une maîtrise de l’Université de Nottingham en 1979 et y devient enseignant à temps partiel jusqu'en 1986. Après cette date, il se consacre entièrement à l'écriture, bien qu'il fonde et dirige, de 1977 à 1999, la petite maison d'édition Slow Dancer Press, spécialisée dans la poésie.
 Boulimique de l’écriture, il publie à partir des années 1980, plus de 90 romans, des recueils de poésie, des romans pour la jeunesse et bon nombre d'adaptations pour la radio ou la télévision.
 Pendant sa carrière d'écrivain, pour écouler son abondante production, il utilise divers pseudonymes : John McLaglen, William S. Brady, J.-D. Sandon, L.-J. Coburn, J.-B. Dancer, W.-M. James, Thom Ryder, Jon Hart, Jon Barton, James Mann, Terry Lennox, John B. Harvey, Thom Ryder, John Barton.
 Après avoir commencé sa carrière d’écrivain en publiant dans des pulps (des policiers et beaucoup de westerns), il écrit en 1989 un roman mettant en scène un policier d’origine polonaise du commissariat de Nottingham du nom de Charles Resnick. C’est le début de la célébrité. Son éditeur lui demande d’en faire une série. Onze autres enquêtes, qui appartiennent toutes au sous-genre de la procédure policière vont se succéder au rythme d’un roman par an entre 1989 et 1998, et les deux derniers 10 et 16 ans plus tard. 
-Personnage très attachant, Resnick est un amateur de sandwiches, de jazz et de chats (il en a quatre, chacun nommé en l'honneur d'un jazzmen célèbre : Bud, Pepper, Dizzy et Miles) qui vit à Nottingham. Harvey fait de cette ville le miroir du Royaume-Uni : « une ville où chômage, misère, violence, exclusion, racisme, délinquance sont l'expression des bouleversements résultant de la casse industrielle initiée par le gouvernement conservateur Thatcher »[1]. L’auteur s'efforce donc, avec beaucoup de justesse et d’empathie, de décrire la société britannique de cette époque sans en cacher les aspects les plus sombres. Le cadre de l'action, le commissariat de la ville est décrit comme dans les ouvrages d'Ed McBain ou les séries télévisées comme Capitaine Furillo. Le style de l'écriture, clair et précis, va à l’essentiel, accordant toutefois une profondeur psychologique à des personnages qui acquièrent tout de suite une réelle authenticité.
+Personnage très attachant, Resnick est un amateur de sandwiches, de jazz et de chats (il en a quatre, chacun nommé en l'honneur d'un jazzmen célèbre : Bud, Pepper, Dizzy et Miles) qui vit à Nottingham. Harvey fait de cette ville le miroir du Royaume-Uni : « une ville où chômage, misère, violence, exclusion, racisme, délinquance sont l'expression des bouleversements résultant de la casse industrielle initiée par le gouvernement conservateur Thatcher ». L’auteur s'efforce donc, avec beaucoup de justesse et d’empathie, de décrire la société britannique de cette époque sans en cacher les aspects les plus sombres. Le cadre de l'action, le commissariat de la ville est décrit comme dans les ouvrages d'Ed McBain ou les séries télévisées comme Capitaine Furillo. Le style de l'écriture, clair et précis, va à l’essentiel, accordant toutefois une profondeur psychologique à des personnages qui acquièrent tout de suite une réelle authenticité.
 John Harvey a aussi écrit une autre série policière de trois romans consacrée à Frank Elder, inspecteur principal en retraite après 30 ans de service au commissariat de Nottingham.
-Également scénariste, il a rédigé « plusieurs scénarios de téléfilms et deux séries télévisées, dont Hard Case (1987-1988) »[2].
+Également scénariste, il a rédigé « plusieurs scénarios de téléfilms et deux séries télévisées, dont Hard Case (1987-1988) ».
 Il reçoit le Diamond Dagger Award en 2007 pour l'ensemble de son œuvre.
 </t>
         </is>
@@ -551,10 +565,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans signés John Harvey
-Sauf mention contraire,  tous ces romans sont publiés dans la collection Rivages/Noir :
-Série Charles Resnick
-Lonely Hearts, 1989 Publié en français sous le titre Cœurs solitaires, no 144, 1993
+          <t>Romans signés John Harvey</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sauf mention contraire,  tous ces romans sont publiés dans la collection Rivages/Noir :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>John_Harvey</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Harvey</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans signés John Harvey</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Charles Resnick</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lonely Hearts, 1989 Publié en français sous le titre Cœurs solitaires, no 144, 1993
 Rough Treatment, 1990 Publié en français sous le titre Les Étrangers dans la maison, no 201, 1995
 Cutting Edge, 1991 Publié en français sous le titre Scalpel, no 228, 1995
 Off Minor, 1992 Publié en français sous le titre Off Minor, no 261, 1997
@@ -565,38 +623,302 @@
 Still Water (1997) Publié en français sous le titre Eau dormante, no 479, 2003
 Last Rites (1998) Publié en français sous le titre Derniers Sacrements, no 527, 2004
 Cold in Hand (2008) Publié en français sous le titre Cold in Hand, Paris, Payot &amp; Rivages, coll. « Rivages/Thriller », 2010 ; réédition, Paris, Payot &amp; Rivages, coll. « Rivages/Noir » no 892, 2012
-Darkness, Darkness (2014) Publié en français sous le titre Ténèbres, ténèbres, Paris, Payot &amp; Rivages, coll. « Rivages/Thriller », 2015 ; réédition, Paris, Payot &amp; Rivages, coll. « Rivages/Noir » no 1042, 2017
-Série Frank Elder
-Flesh and Blood (2004) Publié en français sous le titre De chair et de sang, Paris, Payot &amp; Rivages, coll. « Rivages/Thriller » ; réédition, Paris, Payot &amp; Rivages, coll. « Rivages/Noir » no 652, 2007
+Darkness, Darkness (2014) Publié en français sous le titre Ténèbres, ténèbres, Paris, Payot &amp; Rivages, coll. « Rivages/Thriller », 2015 ; réédition, Paris, Payot &amp; Rivages, coll. « Rivages/Noir » no 1042, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>John_Harvey</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Harvey</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans signés John Harvey</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Frank Elder</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Flesh and Blood (2004) Publié en français sous le titre De chair et de sang, Paris, Payot &amp; Rivages, coll. « Rivages/Thriller » ; réédition, Paris, Payot &amp; Rivages, coll. « Rivages/Noir » no 652, 2007
 Ash and Bone (2005) Publié en français sous le titre De cendre et d'os, Paris, Payot &amp; Rivages, coll. « Rivages/Thriller », 2006 ; réédition, Paris, Payot &amp; Rivages, coll. « Rivages/Noir » no 689, 2008
 Darkness and Light (2006) Publié en français sous le titre D'ombre et de lumière, Paris, Payot &amp; Rivages, coll. « Rivages/Thriller », 2008 ; réédition, Paris, Payot &amp; Rivages, coll. « Rivages/Noir » no 777, 2010
-Body &amp; Soul (2018)  Publié en français sous le titre Le Corps et l'Âme, Paris, Payot &amp; Rivages, coll. « Rivages/Noir », 2021
-Série Scott Mitchell
-Amphetamines and Pearls (1976)
+Body &amp; Soul (2018)  Publié en français sous le titre Le Corps et l'Âme, Paris, Payot &amp; Rivages, coll. « Rivages/Noir », 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>John_Harvey</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Harvey</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans signés John Harvey</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Scott Mitchell</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Amphetamines and Pearls (1976)
 The Geranium Kiss (1976)
 Junkyard Angel '1977)
 Neon Madman (1977)
 Frame (1979)
-Blind (1981)
-Roman de littérature d'enfance et de jeunesse
-Nick’s Blues (2008) Publié en français sous le titre Nick's Blues,  Paris, Syros, 2005 ; réédition, Paris, Éditions Les Incorruptibles, 2006
-Autres romans
-In a True Light (2001) Publié en français sous le titre Couleur franche, Paris, Payot &amp; Rivages, coll. « Rivages/Noir » no 511, 2004
+Blind (1981)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>John_Harvey</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Harvey</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans signés John Harvey</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Roman de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Nick’s Blues (2008) Publié en français sous le titre Nick's Blues,  Paris, Syros, 2005 ; réédition, Paris, Éditions Les Incorruptibles, 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>John_Harvey</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Harvey</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans signés John Harvey</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>In a True Light (2001) Publié en français sous le titre Couleur franche, Paris, Payot &amp; Rivages, coll. « Rivages/Noir » no 511, 2004
 Gone to Ground (2007) Publié en français sous le titre Traquer les ombres, Paris, Payot &amp; Rivages, coll. « Rivages/Thriller », 2009 ; réédition, Paris, Payot &amp; Rivages, coll. « Rivages/Noir » no 845, 2011
 Far Cry (2009) Publié en français sous le titre Le Deuil et l'Oubli, Paris, Payot &amp; Rivages, coll. « Rivages/Thriller », 2011 ; réédition, Paris, Payot &amp; Rivages, coll. « Rivages/Noir » no 914, 2013
-Good Bait (2012) Publié en français sous le titre Lignes de fuite, Paris, Payot et Rivages, coll. « Rivages/Thriller », 2014 ; réédition, Paris, Payot &amp; Rivages, coll. « Rivages/Noir » no 1003, 2015
-Recueil de nouvelles
-Série Charles Resnick
-Now's the Time (2002) Publié en français sous le titre Now's the Time, Paris, Payot &amp; Rivages, coll. « Rivages/Noir » no 526, 2004
-Nouvelles
-Série Charles Resnick
-Now's the Time (1994)
+Good Bait (2012) Publié en français sous le titre Lignes de fuite, Paris, Payot et Rivages, coll. « Rivages/Thriller », 2014 ; réédition, Paris, Payot &amp; Rivages, coll. « Rivages/Noir » no 1003, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>John_Harvey</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Harvey</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série Charles Resnick</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Now's the Time (2002) Publié en français sous le titre Now's the Time, Paris, Payot &amp; Rivages, coll. « Rivages/Noir » no 526, 2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>John_Harvey</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Harvey</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série Charles Resnick</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Now's the Time (1994)
 Bird of Paradise (1997)
 Home (2005)
 Trouble in Mind (2008)
-Going Down Slow (2014), longue nouvelle ou court roman (novella)
-Autres nouvelles
-Riding Track (1981)
+Going Down Slow (2014), longue nouvelle ou court roman (novella)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>John_Harvey</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Harvey</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Autres nouvelles</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Riding Track (1981)
 The Dearest Sweetest Girl (1998)
 Truth (2002)
 Chance (2003) Publié en français sous le titre Une chance, traduit par Marie Gratias dans le recueil Demain ce seront des hommes, Paris, Payot &amp; Rivages, coll. « Rivages/Thriller », 2005
@@ -604,23 +926,165 @@
 A Tall Man (2008)
 Ghosts (2009)
 Drummer Unknown  (2009) Publié en français sous le titre Batteur inconnu (trad. Marie Gratias). In Jazz me blues : anthologie proposée par Jean-Paul Gratias. Paris, Moisson Rouge, avril 2009, p. 181-201  (ISBN 978-2-914833-86-8)
-Minor Key (2010) Publié en français sous le titre Minor Key (trad. Gérard de Chergé). In Jazz me blues : anthologie proposée par Jean-Paul Gratias. Paris, Moisson Rouge, avril 2009, p. 203-224  (ISBN 978-2-914833-86-8)
-Poésie
-Ghost of a Chance 91992)
+Minor Key (2010) Publié en français sous le titre Minor Key (trad. Gérard de Chergé). In Jazz me blues : anthologie proposée par Jean-Paul Gratias. Paris, Moisson Rouge, avril 2009, p. 203-224  (ISBN 978-2-914833-86-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>John_Harvey</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Harvey</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Ghost of a Chance 91992)
 Bluer Than This (1998)
-Out of Silence (2014)
-Anthologies présentées par John Harvey
-Il s'agit de deux anthologies établies et préfacées par John Harvey. Seule la seconde contient une de ses nouvelles.
+Out of Silence (2014)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>John_Harvey</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Harvey</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Anthologies présentées par John Harvey</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Il s'agit de deux anthologies établies et préfacées par John Harvey. Seule la seconde contient une de ses nouvelles.
 Blue Lightning (1998) Publié en français sous le titre Bleu noir, Paris, Rivages, coll. « Écrits noirs », 2002 ; réédition, Paris, Payot &amp; Rivages, coll. « Rivages/Thriller », no 570, 2005
-Men from Boys (2003) Publié en français sous le titre Demain ce seront des hommes, Paris, Payot &amp; Rivages, coll. « Rivages/Thriller », 2005 ; réédition, Paris, Payot &amp; Rivages, coll. « Rivages/Noir », no 778, 2010
-Romans signés John Barton
-Série Deathshop
-Kill Hitler (1976)
+Men from Boys (2003) Publié en français sous le titre Demain ce seront des hommes, Paris, Payot &amp; Rivages, coll. « Rivages/Thriller », 2005 ; réédition, Paris, Payot &amp; Rivages, coll. « Rivages/Noir », no 778, 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>John_Harvey</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Harvey</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Romans signés John Barton</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Série Deathshop</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Kill Hitler (1976)
 Forest of Death (1977)
-Lightning Strikes (1977)
-Romans signés William S. Brady
-Série Hawk
-Blood Money (1979)
+Lightning Strikes (1977)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>John_Harvey</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Harvey</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Romans signés William S. Brady</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Série Hawk</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Blood Money (1979)
 Killing Time (1980)
 Blood Kin (1980)
 Desperadoes (1981)
@@ -628,25 +1092,208 @@
 Sierra Gold (1982)
 Death and Jack Shade (1982)
 Border War (1983)
-Killer! (1983)
-Série Peacemaker
-Whiplash (1981)
-War-party (1983)
-Romans signés Thom Ryder
-Avenging Angel (1975)
-Angel Alone (1975)
-Romans signés L. J. Coburn
-Série Caleb Thorn
-The Raiders (1977)
-Bloody Shiloh (1978)
-Romans signés J. B. Dancer
-Série Lawmen
-Evil Breed (1977)
+Killer! (1983)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>John_Harvey</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Harvey</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Romans signés William S. Brady</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Série Peacemaker</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Whiplash (1981)
+War-party (1983)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>John_Harvey</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Harvey</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Romans signés Thom Ryder</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Avenging Angel (1975)
+Angel Alone (1975)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>John_Harvey</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Harvey</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Romans signés L. J. Coburn</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Série Caleb Thorn</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>The Raiders (1977)
+Bloody Shiloh (1978)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>John_Harvey</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Harvey</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Romans signés J. B. Dancer</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Série Lawmen</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Evil Breed (1977)
 Judgment Day (1978)
-Hanged Man (1979)
-Romans signés John B. Harvey
-Série Hart: The Regulator
-Cherokee Outlet (1980)
+Hanged Man (1979)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>John_Harvey</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Harvey</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Romans signés John B. Harvey</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Série Hart: The Regulator</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Cherokee Outlet (1980)
 Blood Trail (1980)
 Tago (1980)
 The Silver Lie (1980)
@@ -655,17 +1302,91 @@
 Arkansas Breakout (1982)
 John Wesley Hardin (1982)
 California Bloodlines (1982)
-The Skinning Place (1982)
-Romans signés William M. James
-Série Apache
-Blood Rising (1979)
+The Skinning Place (1982)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>John_Harvey</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Harvey</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Romans signés William M. James</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Série Apache</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Blood Rising (1979)
 Blood Brother (1980)
 Death Dragon (1981)
 Death Ride (1983)
-The Hanging (1983)
-Romans signés John J. McLaglen
-Série Herne the Hunter
-River of Blood (1976)
+The Hanging (1983)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>John_Harvey</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Harvey</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Romans signés John J. McLaglen</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Série Herne the Hunter</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>River of Blood (1976)
 Shadow of the Vulture (1977)
 Death in Gold (1977)
 Cross Draw (1978)
@@ -676,56 +1397,169 @@
 Dying Ways (1982)
 Hearts of Gold (1982)
 Pony Express (1983)
-Wild Blood (1983)
-Romans signés J. D. Sandon
-Série Gringos
-Cannons in the Rain (1979)
+Wild Blood (1983)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>John_Harvey</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Harvey</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Romans signés J. D. Sandon</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Série Gringos</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Cannons in the Rain (1979)
 Border Affair (1979)
 Mazatlan (1980)
 Wheels of Thunder (1981)
-Durango (1982)
-Roman signé James Mann
-Série Scott Mitchell
-Endgame (1982)
-Roman signé Terry Lennox
-Série Scott Mitchell
-Dancer Draws a Wild Card (1985)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>John_Harvey</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/John_Harvey</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Durango (1982)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>John_Harvey</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Harvey</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Roman signé James Mann</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Série Scott Mitchell</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Endgame (1982)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>John_Harvey</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Harvey</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Roman signé Terry Lennox</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Série Scott Mitchell</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Dancer Draws a Wild Card (1985)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>John_Harvey</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Harvey</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1995 : Silver Dagger pour Les Étrangers dans la maison[3]
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>1995 : Silver Dagger pour Les Étrangers dans la maison
 1999 : Sherlock Award Winner du meilleur détective britannique pour Charles Resnick dans Derniers Sacrements
-2000 : Grand Prix du roman noir étranger de la ville de Cognac pour Lumière froide[4]
-2004 : Silver Dagger pour De chair et de sang[3]
-2005 : Prix Barry du meilleur roman britannique pour De chair et de sang[5]
-2007 : Cartier Diamond Dagger pour l'ensemble de son œuvre[3],[6]
-2007 : Prix du polar européen pour De cendre et d'os[7]</t>
+2000 : Grand Prix du roman noir étranger de la ville de Cognac pour Lumière froide
+2004 : Silver Dagger pour De chair et de sang
+2005 : Prix Barry du meilleur roman britannique pour De chair et de sang
+2007 : Cartier Diamond Dagger pour l'ensemble de son œuvre,
+2007 : Prix du polar européen pour De cendre et d'os</t>
         </is>
       </c>
     </row>
